--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H2">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J2">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.79541373976247</v>
+        <v>2.829666666666667</v>
       </c>
       <c r="N2">
-        <v>2.79541373976247</v>
+        <v>8.489000000000001</v>
       </c>
       <c r="O2">
-        <v>0.3675552710621251</v>
+        <v>0.3439176707524497</v>
       </c>
       <c r="P2">
-        <v>0.3675552710621251</v>
+        <v>0.3439176707524497</v>
       </c>
       <c r="Q2">
-        <v>544.1118348694285</v>
+        <v>553.0170057403333</v>
       </c>
       <c r="R2">
-        <v>544.1118348694285</v>
+        <v>4977.153051663</v>
       </c>
       <c r="S2">
-        <v>0.1143992623005709</v>
+        <v>0.1064680286453118</v>
       </c>
       <c r="T2">
-        <v>0.1143992623005709</v>
+        <v>0.1064680286453117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>194.644473241969</v>
+        <v>195.435389</v>
       </c>
       <c r="H3">
-        <v>194.644473241969</v>
+        <v>586.306167</v>
       </c>
       <c r="I3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J3">
-        <v>0.3112436994033337</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.81001042320643</v>
+        <v>4.959990666666667</v>
       </c>
       <c r="N3">
-        <v>4.81001042320643</v>
+        <v>14.879972</v>
       </c>
       <c r="O3">
-        <v>0.632444728937875</v>
+        <v>0.6028372377313782</v>
       </c>
       <c r="P3">
-        <v>0.632444728937875</v>
+        <v>0.6028372377313782</v>
       </c>
       <c r="Q3">
-        <v>936.2419451133959</v>
+        <v>969.3577053763694</v>
       </c>
       <c r="R3">
-        <v>936.2419451133959</v>
+        <v>8724.219348387323</v>
       </c>
       <c r="S3">
-        <v>0.1968444371027628</v>
+        <v>0.1866228395732639</v>
       </c>
       <c r="T3">
-        <v>0.1968444371027628</v>
+        <v>0.1866228395732638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H4">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I4">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J4">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.79541373976247</v>
+        <v>0.159539</v>
       </c>
       <c r="N4">
-        <v>2.79541373976247</v>
+        <v>0.478617</v>
       </c>
       <c r="O4">
-        <v>0.3675552710621251</v>
+        <v>0.01939036916274298</v>
       </c>
       <c r="P4">
-        <v>0.3675552710621251</v>
+        <v>0.01939036916274298</v>
       </c>
       <c r="Q4">
-        <v>222.9827046510251</v>
+        <v>31.179566525671</v>
       </c>
       <c r="R4">
-        <v>222.9827046510251</v>
+        <v>280.616098731039</v>
       </c>
       <c r="S4">
-        <v>0.04688201079835876</v>
+        <v>0.006002757505728964</v>
       </c>
       <c r="T4">
-        <v>0.04688201079835876</v>
+        <v>0.006002757505728963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>79.76733514587799</v>
+        <v>195.435389</v>
       </c>
       <c r="H5">
-        <v>79.76733514587799</v>
+        <v>586.306167</v>
       </c>
       <c r="I5">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J5">
-        <v>0.1275509140785377</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.81001042320643</v>
+        <v>0.1111976666666667</v>
       </c>
       <c r="N5">
-        <v>4.81001042320643</v>
+        <v>0.333593</v>
       </c>
       <c r="O5">
-        <v>0.632444728937875</v>
+        <v>0.01351496378128424</v>
       </c>
       <c r="P5">
-        <v>0.632444728937875</v>
+        <v>0.01351496378128424</v>
       </c>
       <c r="Q5">
-        <v>383.6817134830737</v>
+        <v>21.73195924089233</v>
       </c>
       <c r="R5">
-        <v>383.6817134830737</v>
+        <v>195.587633168031</v>
       </c>
       <c r="S5">
-        <v>0.08066890328017896</v>
+        <v>0.004183883741297619</v>
       </c>
       <c r="T5">
-        <v>0.08066890328017896</v>
+        <v>0.004183883741297618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>162.218964272126</v>
+        <v>195.435389</v>
       </c>
       <c r="H6">
-        <v>162.218964272126</v>
+        <v>586.306167</v>
       </c>
       <c r="I6">
-        <v>0.2593941133415505</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="J6">
-        <v>0.2593941133415505</v>
+        <v>0.3095741734129938</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.79541373976247</v>
+        <v>0.1673503333333334</v>
       </c>
       <c r="N6">
-        <v>2.79541373976247</v>
+        <v>0.502051</v>
       </c>
       <c r="O6">
-        <v>0.3675552710621251</v>
+        <v>0.02033975857214491</v>
       </c>
       <c r="P6">
-        <v>0.3675552710621251</v>
+        <v>0.0203397585721449</v>
       </c>
       <c r="Q6">
-        <v>453.4691215763382</v>
+        <v>32.70617749427966</v>
       </c>
       <c r="R6">
-        <v>453.4691215763382</v>
+        <v>294.355597448517</v>
       </c>
       <c r="S6">
-        <v>0.09534167364117321</v>
+        <v>0.006296663947391615</v>
       </c>
       <c r="T6">
-        <v>0.09534167364117321</v>
+        <v>0.006296663947391613</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>162.218964272126</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H7">
-        <v>162.218964272126</v>
+        <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J7">
-        <v>0.2593941133415505</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.81001042320643</v>
+        <v>2.829666666666667</v>
       </c>
       <c r="N7">
-        <v>4.81001042320643</v>
+        <v>8.489000000000001</v>
       </c>
       <c r="O7">
-        <v>0.632444728937875</v>
+        <v>0.3439176707524497</v>
       </c>
       <c r="P7">
-        <v>0.632444728937875</v>
+        <v>0.3439176707524497</v>
       </c>
       <c r="Q7">
-        <v>780.2749089906774</v>
+        <v>225.8845159624445</v>
       </c>
       <c r="R7">
-        <v>780.2749089906774</v>
+        <v>2032.960643662</v>
       </c>
       <c r="S7">
-        <v>0.1640524397003774</v>
+        <v>0.04348777499857617</v>
       </c>
       <c r="T7">
-        <v>0.1640524397003774</v>
+        <v>0.04348777499857616</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>158.632386490809</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H8">
-        <v>158.632386490809</v>
+        <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J8">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.79541373976247</v>
+        <v>4.959990666666667</v>
       </c>
       <c r="N8">
-        <v>2.79541373976247</v>
+        <v>14.879972</v>
       </c>
       <c r="O8">
-        <v>0.3675552710621251</v>
+        <v>0.6028372377313782</v>
       </c>
       <c r="P8">
-        <v>0.3675552710621251</v>
+        <v>0.6028372377313782</v>
       </c>
       <c r="Q8">
-        <v>443.4431527677179</v>
+        <v>395.9424281723085</v>
       </c>
       <c r="R8">
-        <v>443.4431527677179</v>
+        <v>3563.481853550776</v>
       </c>
       <c r="S8">
-        <v>0.09323371832380738</v>
+        <v>0.07622769163872227</v>
       </c>
       <c r="T8">
-        <v>0.09323371832380738</v>
+        <v>0.07622769163872226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>158.632386490809</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H9">
-        <v>158.632386490809</v>
+        <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J9">
-        <v>0.2536590430451174</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.81001042320643</v>
+        <v>0.159539</v>
       </c>
       <c r="N9">
-        <v>4.81001042320643</v>
+        <v>0.478617</v>
       </c>
       <c r="O9">
-        <v>0.632444728937875</v>
+        <v>0.01939036916274298</v>
       </c>
       <c r="P9">
-        <v>0.632444728937875</v>
+        <v>0.01939036916274298</v>
       </c>
       <c r="Q9">
-        <v>763.0234324789022</v>
+        <v>12.73556006318733</v>
       </c>
       <c r="R9">
-        <v>763.0234324789022</v>
+        <v>114.620040568686</v>
       </c>
       <c r="S9">
-        <v>0.16042532472131</v>
+        <v>0.002451877536399285</v>
       </c>
       <c r="T9">
-        <v>0.16042532472131</v>
+        <v>0.002451877536399284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.1132697218668</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H10">
-        <v>30.1132697218668</v>
+        <v>239.481758</v>
       </c>
       <c r="I10">
-        <v>0.04815223013146062</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="J10">
-        <v>0.04815223013146062</v>
+        <v>0.1264482133280045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.79541373976247</v>
+        <v>0.1111976666666667</v>
       </c>
       <c r="N10">
-        <v>2.79541373976247</v>
+        <v>0.333593</v>
       </c>
       <c r="O10">
-        <v>0.3675552710621251</v>
+        <v>0.01351496378128424</v>
       </c>
       <c r="P10">
-        <v>0.3675552710621251</v>
+        <v>0.01351496378128424</v>
       </c>
       <c r="Q10">
-        <v>84.17904792967963</v>
+        <v>8.876604232943778</v>
       </c>
       <c r="R10">
-        <v>84.17904792967963</v>
+        <v>79.889438096494</v>
       </c>
       <c r="S10">
-        <v>0.01769860599821484</v>
+        <v>0.001708943023336084</v>
       </c>
       <c r="T10">
-        <v>0.01769860599821484</v>
+        <v>0.001708943023336084</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>79.82725266666667</v>
+      </c>
+      <c r="H11">
+        <v>239.481758</v>
+      </c>
+      <c r="I11">
+        <v>0.1264482133280045</v>
+      </c>
+      <c r="J11">
+        <v>0.1264482133280045</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1673503333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.502051</v>
+      </c>
+      <c r="O11">
+        <v>0.02033975857214491</v>
+      </c>
+      <c r="P11">
+        <v>0.0203397585721449</v>
+      </c>
+      <c r="Q11">
+        <v>13.35911734285089</v>
+      </c>
+      <c r="R11">
+        <v>120.232056085658</v>
+      </c>
+      <c r="S11">
+        <v>0.002571926130970687</v>
+      </c>
+      <c r="T11">
+        <v>0.002571926130970686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H12">
+        <v>487.534973</v>
+      </c>
+      <c r="I12">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J12">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.829666666666667</v>
+      </c>
+      <c r="N12">
+        <v>8.489000000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.3439176707524497</v>
+      </c>
+      <c r="P12">
+        <v>0.3439176707524497</v>
+      </c>
+      <c r="Q12">
+        <v>459.8538206441111</v>
+      </c>
+      <c r="R12">
+        <v>4138.684385797</v>
+      </c>
+      <c r="S12">
+        <v>0.08853205098720256</v>
+      </c>
+      <c r="T12">
+        <v>0.08853205098720256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>30.1132697218668</v>
-      </c>
-      <c r="H11">
-        <v>30.1132697218668</v>
-      </c>
-      <c r="I11">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="J11">
-        <v>0.04815223013146062</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>4.81001042320643</v>
-      </c>
-      <c r="N11">
-        <v>4.81001042320643</v>
-      </c>
-      <c r="O11">
-        <v>0.632444728937875</v>
-      </c>
-      <c r="P11">
-        <v>0.632444728937875</v>
-      </c>
-      <c r="Q11">
-        <v>144.8451412390059</v>
-      </c>
-      <c r="R11">
-        <v>144.8451412390059</v>
-      </c>
-      <c r="S11">
-        <v>0.03045362413324578</v>
-      </c>
-      <c r="T11">
-        <v>0.03045362413324578</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H13">
+        <v>487.534973</v>
+      </c>
+      <c r="I13">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J13">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.959990666666667</v>
+      </c>
+      <c r="N13">
+        <v>14.879972</v>
+      </c>
+      <c r="O13">
+        <v>0.6028372377313782</v>
+      </c>
+      <c r="P13">
+        <v>0.6028372377313782</v>
+      </c>
+      <c r="Q13">
+        <v>806.0563052511951</v>
+      </c>
+      <c r="R13">
+        <v>7254.506747260756</v>
+      </c>
+      <c r="S13">
+        <v>0.1551837012359696</v>
+      </c>
+      <c r="T13">
+        <v>0.1551837012359696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H14">
+        <v>487.534973</v>
+      </c>
+      <c r="I14">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J14">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.159539</v>
+      </c>
+      <c r="N14">
+        <v>0.478617</v>
+      </c>
+      <c r="O14">
+        <v>0.01939036916274298</v>
+      </c>
+      <c r="P14">
+        <v>0.01939036916274298</v>
+      </c>
+      <c r="Q14">
+        <v>25.92694735248233</v>
+      </c>
+      <c r="R14">
+        <v>233.342526172341</v>
+      </c>
+      <c r="S14">
+        <v>0.004991511915106835</v>
+      </c>
+      <c r="T14">
+        <v>0.004991511915106835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H15">
+        <v>487.534973</v>
+      </c>
+      <c r="I15">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J15">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1111976666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.333593</v>
+      </c>
+      <c r="O15">
+        <v>0.01351496378128424</v>
+      </c>
+      <c r="P15">
+        <v>0.01351496378128424</v>
+      </c>
+      <c r="Q15">
+        <v>18.07091713866544</v>
+      </c>
+      <c r="R15">
+        <v>162.638254247989</v>
+      </c>
+      <c r="S15">
+        <v>0.003479052006711493</v>
+      </c>
+      <c r="T15">
+        <v>0.003479052006711493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>162.5116576666667</v>
+      </c>
+      <c r="H16">
+        <v>487.534973</v>
+      </c>
+      <c r="I16">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="J16">
+        <v>0.2574222219914007</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1673503333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.502051</v>
+      </c>
+      <c r="O16">
+        <v>0.02033975857214491</v>
+      </c>
+      <c r="P16">
+        <v>0.0203397585721449</v>
+      </c>
+      <c r="Q16">
+        <v>27.19638008106922</v>
+      </c>
+      <c r="R16">
+        <v>244.767420729623</v>
+      </c>
+      <c r="S16">
+        <v>0.005235905846410181</v>
+      </c>
+      <c r="T16">
+        <v>0.005235905846410181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H17">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J17">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.829666666666667</v>
+      </c>
+      <c r="N17">
+        <v>8.489000000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.3439176707524497</v>
+      </c>
+      <c r="P17">
+        <v>0.3439176707524497</v>
+      </c>
+      <c r="Q17">
+        <v>452.155383292889</v>
+      </c>
+      <c r="R17">
+        <v>4069.398449636001</v>
+      </c>
+      <c r="S17">
+        <v>0.08704993119716684</v>
+      </c>
+      <c r="T17">
+        <v>0.08704993119716682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H18">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J18">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.959990666666667</v>
+      </c>
+      <c r="N18">
+        <v>14.879972</v>
+      </c>
+      <c r="O18">
+        <v>0.6028372377313782</v>
+      </c>
+      <c r="P18">
+        <v>0.6028372377313782</v>
+      </c>
+      <c r="Q18">
+        <v>792.5620736302811</v>
+      </c>
+      <c r="R18">
+        <v>7133.058662672529</v>
+      </c>
+      <c r="S18">
+        <v>0.1525857626122946</v>
+      </c>
+      <c r="T18">
+        <v>0.1525857626122946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H19">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J19">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.159539</v>
+      </c>
+      <c r="N19">
+        <v>0.478617</v>
+      </c>
+      <c r="O19">
+        <v>0.01939036916274298</v>
+      </c>
+      <c r="P19">
+        <v>0.01939036916274298</v>
+      </c>
+      <c r="Q19">
+        <v>25.49290294327868</v>
+      </c>
+      <c r="R19">
+        <v>229.436126489508</v>
+      </c>
+      <c r="S19">
+        <v>0.004907948747767039</v>
+      </c>
+      <c r="T19">
+        <v>0.004907948747767038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H20">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J20">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1111976666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.333593</v>
+      </c>
+      <c r="O20">
+        <v>0.01351496378128424</v>
+      </c>
+      <c r="P20">
+        <v>0.01351496378128424</v>
+      </c>
+      <c r="Q20">
+        <v>17.76839095050356</v>
+      </c>
+      <c r="R20">
+        <v>159.915518554532</v>
+      </c>
+      <c r="S20">
+        <v>0.003420809011409645</v>
+      </c>
+      <c r="T20">
+        <v>0.003420809011409644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>159.7910413333334</v>
+      </c>
+      <c r="H21">
+        <v>479.3731240000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="J21">
+        <v>0.2531127028358626</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1673503333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.502051</v>
+      </c>
+      <c r="O21">
+        <v>0.02033975857214491</v>
+      </c>
+      <c r="P21">
+        <v>0.0203397585721449</v>
+      </c>
+      <c r="Q21">
+        <v>26.74108403081379</v>
+      </c>
+      <c r="R21">
+        <v>240.669756277324</v>
+      </c>
+      <c r="S21">
+        <v>0.005148251267224503</v>
+      </c>
+      <c r="T21">
+        <v>0.005148251267224502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H22">
+        <v>101.215736</v>
+      </c>
+      <c r="I22">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J22">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.829666666666667</v>
+      </c>
+      <c r="N22">
+        <v>8.489000000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.3439176707524497</v>
+      </c>
+      <c r="P22">
+        <v>0.3439176707524497</v>
+      </c>
+      <c r="Q22">
+        <v>95.46893143377777</v>
+      </c>
+      <c r="R22">
+        <v>859.220382904</v>
+      </c>
+      <c r="S22">
+        <v>0.01837988492419237</v>
+      </c>
+      <c r="T22">
+        <v>0.01837988492419237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H23">
+        <v>101.215736</v>
+      </c>
+      <c r="I23">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J23">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.959990666666667</v>
+      </c>
+      <c r="N23">
+        <v>14.879972</v>
+      </c>
+      <c r="O23">
+        <v>0.6028372377313782</v>
+      </c>
+      <c r="P23">
+        <v>0.6028372377313782</v>
+      </c>
+      <c r="Q23">
+        <v>167.3430352932658</v>
+      </c>
+      <c r="R23">
+        <v>1506.087317639392</v>
+      </c>
+      <c r="S23">
+        <v>0.03221724267112788</v>
+      </c>
+      <c r="T23">
+        <v>0.03221724267112788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H24">
+        <v>101.215736</v>
+      </c>
+      <c r="I24">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J24">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.159539</v>
+      </c>
+      <c r="N24">
+        <v>0.478617</v>
+      </c>
+      <c r="O24">
+        <v>0.01939036916274298</v>
+      </c>
+      <c r="P24">
+        <v>0.01939036916274298</v>
+      </c>
+      <c r="Q24">
+        <v>5.382619101901333</v>
+      </c>
+      <c r="R24">
+        <v>48.443571917112</v>
+      </c>
+      <c r="S24">
+        <v>0.001036273457740862</v>
+      </c>
+      <c r="T24">
+        <v>0.001036273457740862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H25">
+        <v>101.215736</v>
+      </c>
+      <c r="I25">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J25">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1111976666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.333593</v>
+      </c>
+      <c r="O25">
+        <v>0.01351496378128424</v>
+      </c>
+      <c r="P25">
+        <v>0.01351496378128424</v>
+      </c>
+      <c r="Q25">
+        <v>3.751651224383111</v>
+      </c>
+      <c r="R25">
+        <v>33.764861019448</v>
+      </c>
+      <c r="S25">
+        <v>0.0007222759985294033</v>
+      </c>
+      <c r="T25">
+        <v>0.0007222759985294032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>33.73857866666666</v>
+      </c>
+      <c r="H26">
+        <v>101.215736</v>
+      </c>
+      <c r="I26">
+        <v>0.05344268843173843</v>
+      </c>
+      <c r="J26">
+        <v>0.05344268843173842</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.1673503333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.502051</v>
+      </c>
+      <c r="O26">
+        <v>0.02033975857214491</v>
+      </c>
+      <c r="P26">
+        <v>0.0203397585721449</v>
+      </c>
+      <c r="Q26">
+        <v>5.646162386059555</v>
+      </c>
+      <c r="R26">
+        <v>50.815461474536</v>
+      </c>
+      <c r="S26">
+        <v>0.001087011380147921</v>
+      </c>
+      <c r="T26">
+        <v>0.001087011380147921</v>
       </c>
     </row>
   </sheetData>
